--- a/src/main/resources/SERVER_schema_TOS.xlsx
+++ b/src/main/resources/SERVER_schema_TOS.xlsx
@@ -76,7 +76,7 @@
     <t xml:space="preserve">roundNr</t>
   </si>
   <si>
-    <t xml:space="preserve">MatchMaker</t>
+    <t xml:space="preserve">MatchRoundMaker</t>
   </si>
   <si>
     <t xml:space="preserve">create</t>
@@ -118,6 +118,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -140,6 +141,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -382,15 +384,15 @@
   <dimension ref="B3:F34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+      <selection pane="topLeft" activeCell="L33" activeCellId="0" sqref="L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="2.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="2.92"/>
   </cols>
